--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_01_beg.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_01_beg.xlsx
@@ -1376,7 +1376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Was that fiction?
+    <t xml:space="preserve">[name="Mr. Nothing"]Was that fiction?
 </t>
   </si>
   <si>
@@ -1388,7 +1388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Quite sensible!
+    <t xml:space="preserve">[name="Mr. Nothing"]Quite sensible!
 </t>
   </si>
   <si>
@@ -1412,11 +1412,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ah—right, right, these two friends of mine came from far away, in search of someone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]But neither of them are quite as aware of Yen as those of us born here, so I'm giving them some small assistance, acting as their guide. How should I address you, sir?
+    <t xml:space="preserve">[name="Mr. Nothing"]Ah—right, right, these two friends of mine came from far away, in search of someone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]But neither of them are quite as aware of Yen as those of us born here, so I'm giving them some small assistance, acting as their guide. How should I address you, sir?
 </t>
   </si>
   <si>
@@ -1424,7 +1424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]How artistic! How artistic indeed! By damned luck, I too was given no option but to leave home, and nowadays go by 'No' and 'thing' in lieu of names sur and given. You can call me Brother No, how about that?
+    <t xml:space="preserve">[name="Mr. Nothing"]How artistic! How artistic indeed! By damned luck, I too was given no option but to leave home, and nowadays go by 'No' and 'thing' in lieu of names sur and given. You can call me Brother No, how about that?
 </t>
   </si>
   <si>
@@ -1452,7 +1452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Hah, just as the proverb goes, chance meetings are predestiny; it truly couldn't be more opportune if we tried. The one we're searching for is also a painter, like in the story we just heard.
+    <t xml:space="preserve">[name="Mr. Nothing"]Hah, just as the proverb goes, chance meetings are predestiny; it truly couldn't be more opportune if we tried. The one we're searching for is also a painter, like in the story we just heard.
 </t>
   </si>
   <si>
@@ -1460,7 +1460,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Er... benefactor? May you describe?
+    <t xml:space="preserve">[name="Mr. Nothing"]Er... benefactor? May you describe?
 </t>
   </si>
   <si>
@@ -1480,7 +1480,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Oh, this is a strange turn indeed... could it be that the one you benefactors seek left this place before we came?
+    <t xml:space="preserve">[name="Mr. Nothing"]Oh, this is a strange turn indeed... could it be that the one you benefactors seek left this place before we came?
 </t>
   </si>
   <si>
@@ -1488,15 +1488,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Good, good, then we'll leave you to it, sir, and for the time being—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]We'll...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Storyteller"]Mr.Nothing?
+    <t xml:space="preserve">[name="Mr. Nothing"]Good, good, then we'll leave you to it, sir, and for the time being—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]We'll...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Storyteller"]Mr. Nothing?
 </t>
   </si>
   <si>
@@ -1504,7 +1504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ah, heheh, where... where did we come in from?
+    <t xml:space="preserve">[name="Mr. Nothing"]Ah, heheh, where... where did we come in from?
 </t>
   </si>
   <si>
@@ -1520,7 +1520,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Heh... Look at me, all befuddled. How is it I can't remember, now?
+    <t xml:space="preserve">[name="Mr. Nothing"]Heh... Look at me, all befuddled. How is it I can't remember, now?
 </t>
   </si>
   <si>
@@ -1532,7 +1532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Here, thank you, thank you, farewell now, farewell. Benefactors, shall we go?
+    <t xml:space="preserve">[name="Mr. Nothing"]Here, thank you, thank you, farewell now, farewell. Benefactors, shall we go?
 </t>
   </si>
   <si>
@@ -1540,7 +1540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]And that said, where should we take a look at? We've visited the teahouse, the stage station and the gardens. Where else could there be any clues?
+    <t xml:space="preserve">[name="Mr. Nothing"]And that said, where should we take a look at? We've visited the teahouse, the stage station and the gardens. Where else could there be any clues?
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Oh, why do you ask? I'd say about... two or three days?
+    <t xml:space="preserve">[name="Mr. Nothing"]Oh, why do you ask? I'd say about... two or three days?
 </t>
   </si>
   <si>
@@ -1556,7 +1556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ahahah, heh, most likely I slept awful last night. I'm a little out of kilter.
+    <t xml:space="preserve">[name="Mr. Nothing"]Ahahah, heh, most likely I slept awful last night. I'm a little out of kilter.
 </t>
   </si>
   <si>
@@ -1584,7 +1584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Benefactors, why the muttering? If we don't hurry up soon, it'll get dark on us.
+    <t xml:space="preserve">[name="Mr. Nothing"]Benefactors, why the muttering? If we don't hurry up soon, it'll get dark on us.
 </t>
   </si>
   <si>
@@ -1604,11 +1604,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]B... benefactors, what's going on? Look over there, is that... is that a moon, now?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]And it's broad daylight right now, isn't it? Why have they lit lanterns on the other end of the bridge?
+    <t xml:space="preserve">[name="Mr. Nothing"]B... benefactors, what's going on? Look over there, is that... is that a moon, now?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]And it's broad daylight right now, isn't it? Why have they lit lanterns on the other end of the bridge?
 </t>
   </si>
   <si>
@@ -1616,7 +1616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Er?
+    <t xml:space="preserve">[name="Mr. Nothing"]Er?
 </t>
   </si>
   <si>
@@ -1652,11 +1652,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]Mr.Nothing!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Er—? I'm here, I'm here!
+    <t xml:space="preserve">[name="Lava"]Mr. Nothing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Er—? I'm here, I'm here!
 </t>
   </si>
   <si>
@@ -1664,11 +1664,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Does... does it need to be said... er...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]P—paying close attention, it seems a little off! But there isn't another village anywhere around!
+    <t xml:space="preserve">[name="Mr. Nothing"]Does... does it need to be said... er...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]P—paying close attention, it seems a little off! But there isn't another village anywhere around!
 </t>
   </si>
   <si>
@@ -1684,7 +1684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]—and then you two benefactors dealt with the beasts and saved me?
+    <t xml:space="preserve">[name="Mr. Nothing"]—and then you two benefactors dealt with the beasts and saved me?
 </t>
   </si>
   <si>
@@ -1696,7 +1696,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]And then, we...?
+    <t xml:space="preserve">[name="Mr. Nothing"]And then, we...?
 </t>
   </si>
   <si>
@@ -1736,7 +1736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]M—Monsters? What monsters?
+    <t xml:space="preserve">[name="Mr. Nothing"]M—Monsters? What monsters?
 </t>
   </si>
   <si>
@@ -1752,11 +1752,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Benefactors, benefactors, let us hurry and take shelter!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]They said we'll be fine if we run somewhere where the sun is? Then let us hurry—benefactors?
+    <t xml:space="preserve">[name="Mr. Nothing"]Benefactors, benefactors, let us hurry and take shelter!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]They said we'll be fine if we run somewhere where the sun is? Then let us hurry—benefactors?
 </t>
   </si>
   <si>
@@ -1772,11 +1772,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]—Benefactors!? This is no time for jokes, we're no better than paste on our own! Let's hide before we do anything else!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Here! Here, here! Why are you charging them! Alas! My good benefactors, you—wait for me, wait for me a moment!
+    <t xml:space="preserve">[name="Mr. Nothing"]—Benefactors!? This is no time for jokes, we're no better than paste on our own! Let's hide before we do anything else!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Here! Here, here! Why are you charging them! Alas! My good benefactors, you—wait for me, wait for me a moment!
 </t>
   </si>
   <si>
